--- a/documents/#02.基本設計/用語集.xlsx
+++ b/documents/#02.基本設計/用語集.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\CMCS-SV\Webソリューション事業部\ユーザ\438_村嶋崇弘\50.委員会\01.WORKGROUP\02.Java課題\#02.基本設計\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0832B26D-6BC4-4459-9C2F-6371DC6AD4C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="60" windowWidth="20460" windowHeight="10815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="7" r:id="rId1"/>
@@ -20,181 +14,239 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">一覧!$A$1:$F$28</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">一覧!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>No</t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分類</t>
   </si>
   <si>
     <t>項目名</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>説明</t>
-    <rPh sb="0" eb="2">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>蔵書</t>
-    <rPh sb="0" eb="2">
-      <t>ゾウショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>分類</t>
-    <rPh sb="0" eb="2">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>個人や会社が所有している書物のこと。</t>
-    <rPh sb="0" eb="2">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショユウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショモツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>書物</t>
-    <rPh sb="0" eb="2">
-      <t>ショモツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>借用者</t>
-    <rPh sb="0" eb="2">
-      <t>シャクヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>所有者</t>
-    <rPh sb="0" eb="3">
-      <t>ショユウシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>本システムでは、貸出対象となる本に該当するものを指す。
 個人の制作物も含めた、本全般のこと。書籍とは区別する。</t>
-    <rPh sb="28" eb="30">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>セイサク</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ブツ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ゼンパン</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ショセキ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>クベツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>蔵書</t>
+  </si>
+  <si>
+    <t>個人や会社が所有している書物のこと。</t>
+  </si>
+  <si>
+    <t>借用者</t>
   </si>
   <si>
     <t>蔵書を借りる人。</t>
-    <rPh sb="0" eb="2">
-      <t>ゾウショ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヒト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>所有者</t>
   </si>
   <si>
     <t>蔵書を所有している人。</t>
-    <rPh sb="0" eb="2">
-      <t>ゾウショ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショユウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヒト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用者</t>
+  </si>
+  <si>
+    <t>本システムを利用する人全てを指す。　※管理者を除く</t>
+  </si>
+  <si>
+    <t>管理者</t>
+  </si>
+  <si>
+    <t>これから作成</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Yu Gothic"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Yu Gothic"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Yu Gothic"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Yu Gothic"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Yu Gothic"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,12 +255,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -231,39 +469,325 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
+    <cellStyle name="入力" xfId="2" builtinId="20"/>
+    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
+    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
+    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
+    <cellStyle name="通貨" xfId="6" builtinId="4"/>
+    <cellStyle name="20% - アクセント 4" xfId="7" builtinId="42"/>
+    <cellStyle name="メモ" xfId="8" builtinId="10"/>
+    <cellStyle name="パーセント" xfId="9" builtinId="5"/>
+    <cellStyle name="ハイパーリンク" xfId="10" builtinId="8"/>
+    <cellStyle name="アクセント 2" xfId="11" builtinId="33"/>
+    <cellStyle name="訪問済ハイパーリンク" xfId="12" builtinId="9"/>
+    <cellStyle name="良い" xfId="13" builtinId="26"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11"/>
+    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
+    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
+    <cellStyle name="説明文" xfId="17" builtinId="53"/>
+    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
+    <cellStyle name="出力" xfId="19" builtinId="21"/>
+    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
+    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
+    <cellStyle name="計算" xfId="22" builtinId="22"/>
+    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
+    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
+    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
+    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
+    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
+    <cellStyle name="集計" xfId="28" builtinId="25"/>
+    <cellStyle name="悪い" xfId="29" builtinId="27"/>
+    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
+    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
+    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
+    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
+    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
+    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
+    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
+    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
+    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
+    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
+    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -312,7 +836,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -347,7 +871,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -521,30 +1045,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E93654-E36A-4662-A152-8A39B7508E02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="2.625" style="1"/>
-    <col min="2" max="2" width="4.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="86.75" style="1" customWidth="1"/>
@@ -552,171 +1070,178 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="31.5">
-      <c r="B3" s="5">
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="31.5" spans="2:5">
+      <c r="B3" s="3">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <f t="shared" ref="B4:B10" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="2"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="2"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="2"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="2"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="2"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.196850393700787" bottom="0.196850393700787" header="0.511811023622047" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;14P.&amp;P/&amp;N　　　</oddHeader>
   </headerFooter>
@@ -724,22 +1249,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAA2477-9A29-4430-BC92-B0955B80ADB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>